--- a/config_11.23/permission_server_config.xlsx
+++ b/config_11.23/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="2291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="2292">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10460,10 +10460,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>幸运福袋（V1-V3，非CPS）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运福袋（V7-V12，非CPS）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -10657,6 +10653,14 @@
   </si>
   <si>
     <t>VIP6及以上用户</t>
+  </si>
+  <si>
+    <t>VIP0及以上玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运福袋（V0-V3，非CPS）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16767,11 +16771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P445"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G426" sqref="G426"/>
+      <selection pane="bottomRight" activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31916,7 +31920,7 @@
         <v>2269</v>
       </c>
       <c r="D439" s="119" t="s">
-        <v>2270</v>
+        <v>2291</v>
       </c>
       <c r="G439" s="7">
         <v>538</v>
@@ -31948,7 +31952,7 @@
         <v>2263</v>
       </c>
       <c r="D440" s="119" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="G440" s="7">
         <v>539</v>
@@ -31980,7 +31984,7 @@
         <v>2264</v>
       </c>
       <c r="D441" s="119" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="G441" s="7">
         <v>540</v>
@@ -32009,10 +32013,10 @@
         <v>1</v>
       </c>
       <c r="C442" s="119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D442" s="119" t="s">
         <v>2285</v>
-      </c>
-      <c r="D442" s="119" t="s">
-        <v>2286</v>
       </c>
       <c r="G442" s="7">
         <v>541</v>
@@ -32041,10 +32045,10 @@
         <v>1</v>
       </c>
       <c r="C443" s="119" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D443" s="119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="G443" s="7">
         <v>542</v>
@@ -32073,10 +32077,10 @@
         <v>1</v>
       </c>
       <c r="C444" s="119" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D444" s="119" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G444" s="7">
         <v>543</v>
@@ -32105,10 +32109,10 @@
         <v>1</v>
       </c>
       <c r="C445" s="119" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D445" s="119" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="G445" s="7">
         <v>544</v>
@@ -32141,11 +32145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1151" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1168" sqref="G1168"/>
+      <selection pane="bottomRight" activeCell="D1246" sqref="D1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59815,7 +59819,7 @@
         <v>1</v>
       </c>
       <c r="G1162" s="122" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1163" spans="1:7">
@@ -59884,7 +59888,7 @@
         <v>2</v>
       </c>
       <c r="G1165" s="122" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1166" spans="1:7">
@@ -59953,7 +59957,7 @@
         <v>3</v>
       </c>
       <c r="G1168" s="122" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1169" spans="1:7">
@@ -61485,7 +61489,7 @@
         <v>2186</v>
       </c>
       <c r="D1235" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1235" s="21">
         <v>3</v>
@@ -61494,7 +61498,7 @@
         <v>1</v>
       </c>
       <c r="G1235" s="122" t="s">
-        <v>2214</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1236" spans="1:7">
@@ -61632,7 +61636,7 @@
         <v>1</v>
       </c>
       <c r="G1241" s="122" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1242" spans="1:7">
@@ -61701,7 +61705,7 @@
         <v>1</v>
       </c>
       <c r="G1244" s="122" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1245" spans="1:7">
@@ -61724,7 +61728,7 @@
         <v>1</v>
       </c>
       <c r="G1245" s="122" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1246" spans="1:7">
@@ -61793,7 +61797,7 @@
         <v>1</v>
       </c>
       <c r="G1248" s="122" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1249" spans="1:7">
@@ -61816,7 +61820,7 @@
         <v>1</v>
       </c>
       <c r="G1249" s="122" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1250" spans="1:7">
@@ -61885,7 +61889,7 @@
         <v>1</v>
       </c>
       <c r="G1252" s="122" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1253" spans="1:7">
@@ -61908,7 +61912,7 @@
         <v>1</v>
       </c>
       <c r="G1253" s="122" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1254" spans="1:7">
@@ -61977,7 +61981,7 @@
         <v>1</v>
       </c>
       <c r="G1256" s="122" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1257" spans="1:7">
@@ -62000,7 +62004,7 @@
         <v>1</v>
       </c>
       <c r="G1257" s="122" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1258" spans="1:7">
